--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-08_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-08_beg.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Even if Amiya recognizes "Skullshatterer," there is no path forward from here.
+    <t xml:space="preserve">Even if Amiya recognizes 'Skullshatterer,' there is no path forward from here.
 </t>
   </si>
   <si>
